--- a/WINDOWS 事件ID表.xlsx
+++ b/WINDOWS 事件ID表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Windows </t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>Session重新連接或斷開</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,13 +254,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -590,7 +608,7 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -612,7 +630,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -625,8 +643,11 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>517</v>
       </c>
@@ -640,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -654,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -668,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>538</v>
       </c>
@@ -682,7 +703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -696,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>612</v>
       </c>
@@ -710,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -724,7 +745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -738,7 +759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -752,7 +773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -766,7 +787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
